--- a/data/trans_bre/P16A04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,77</t>
+          <t>-3,03; 0,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,58</t>
+          <t>-2,76; 2,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,46</t>
+          <t>-4,36; 0,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,74</t>
+          <t>0,83; 4,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,15; 119,19</t>
+          <t>-90,57; 67,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 192,88</t>
+          <t>-72,63; 168,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-91,01; 45,64</t>
+          <t>-89,95; 47,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,66; 625,28</t>
+          <t>22,3; 526,55</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,69</t>
+          <t>-0,01; 3,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,27</t>
+          <t>-1,77; 2,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,0</t>
+          <t>-2,45; 1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,71</t>
+          <t>-1,58; 1,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 946,04</t>
+          <t>-34,99; 1037,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,6; 252,24</t>
+          <t>-67,89; 221,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,37; 139,06</t>
+          <t>-90,12; 205,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 197,87</t>
+          <t>-63,59; 234,47</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,01</t>
+          <t>-0,44; 5,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,02</t>
+          <t>-3,53; 1,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 8,66</t>
+          <t>0,52; 8,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 7,11</t>
+          <t>-1,7; 6,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 521,99</t>
+          <t>-35,32; 671,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,84; 89,38</t>
+          <t>-74,88; 78,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 1175,15</t>
+          <t>-10,99; 1229,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 531,09</t>
+          <t>-35,13; 464,9</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,61</t>
+          <t>-0,35; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,6</t>
+          <t>-0,4; 3,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,65</t>
+          <t>-0,37; 2,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,51</t>
+          <t>-1,36; 1,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 190,34</t>
+          <t>-15,62; 183,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 150,7</t>
+          <t>-10,19; 144,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 153,77</t>
+          <t>-14,77; 137,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 98,09</t>
+          <t>-49,83; 103,43</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,53</t>
+          <t>-3,41; 1,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,61</t>
+          <t>-3,4; 0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,87</t>
+          <t>-1,48; 1,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,87</t>
+          <t>0,27; 4,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,28; 97,4</t>
+          <t>-71,88; 79,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,93; 28,53</t>
+          <t>-70,51; 29,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 155,48</t>
+          <t>-49,47; 165,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 413,03</t>
+          <t>5,77; 350,99</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,13</t>
+          <t>-0,37; 2,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,02</t>
+          <t>-0,45; 2,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,73</t>
+          <t>-1,09; 1,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 1,51</t>
+          <t>-7,85; 1,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,21; —</t>
+          <t>-37,37; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,03; —</t>
+          <t>-32,34; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,94; 535,67</t>
+          <t>-56,26; 527,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,58; 135,62</t>
+          <t>-81,28; 164,66</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,13</t>
+          <t>-0,3; 1,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,84</t>
+          <t>-0,89; 0,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,97</t>
+          <t>-0,57; 0,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,65</t>
+          <t>-0,05; 1,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 73,79</t>
+          <t>-14,6; 68,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 35,59</t>
+          <t>-26,24; 34,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 57,77</t>
+          <t>-22,36; 50,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 96,12</t>
+          <t>-1,7; 93,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
